--- a/biology/Origine et évolution du vivant/Évolution_de_la_reproduction_sexuée/Évolution_de_la_reproduction_sexuée.xlsx
+++ b/biology/Origine et évolution du vivant/Évolution_de_la_reproduction_sexuée/Évolution_de_la_reproduction_sexuée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89volution_de_la_reproduction_sexu%C3%A9e</t>
+          <t>Évolution_de_la_reproduction_sexuée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'évolution de la reproduction sexuée est une discipline scientifique de la biologie évolutive qui examine comment et pourquoi la reproduction sexuée est apparue et s'est diversifiée parmi les organismes vivants. Elle s'inscrit dans l'histoire évolutive du vivant et repose sur un modèle explicatif des changements survenus au sein du vivant depuis l'origine de la vie, de générations en générations, en s'appuyant sur l'histoire de la pensée évolutionniste, en particulier sur les divers concepts de la « théorie de l'évolution » tels que le darwinisme et l'évolution.
 L'origine de la reproduction sexuée remonte au Précambrien avec les premiers organismes eucaryotes ; sa datation « exacte » demeure incertaine – de même que pour l'origine de la vie, voir fossiles les plus anciens – bien que deux datations approximatives soient avancées selon les sources : 2 milliard d'années ou 1,2 milliard d'années. Depuis lors, la reproduction sexuelle a évolué pour devenir le mode de reproduction dominant chez les eucaryotes, incluant les Plantes, les Animaux et les Champignons. Les mécanismes de la reproduction sexuée, tels que la méiose et la fécondation, ainsi que les stratégies de reproduction variées, comme l'hermaphrodisme, la parthénogenèse et la reproduction biparentale, montrent une diversité et complexité du vivant.
